--- a/biology/Médecine/Hydrops/Hydrops.xlsx
+++ b/biology/Médecine/Hydrops/Hydrops.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
@@ -513,12 +525,14 @@
           <t>Médecine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Hydrops est un terme médical qui désigne un œdème qui peut être généralisé (anasarque).
 L'hydrops fœtal touche le fœtus et peut être d'origine immunitaire ou non-immunitaire.
 L'hydrops endolymphatique
-L'hydrops interne intramédullaire, voir Méningocèle[1]</t>
+L'hydrops interne intramédullaire, voir Méningocèle</t>
         </is>
       </c>
     </row>
@@ -546,7 +560,9 @@
           <t>Herpétologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Hydrops est un genre de serpents.
 </t>
